--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 0 (22, 10, 50, 39, 48)/Ableson 8 (9, 23, 10, 4, 42)/NCDE_32nodes_Uniform0.05Virtual_Nelson(22, 10, 50, 39, 48)_Ableson(9, 23, 10, 4, 42)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 0 (22, 10, 50, 39, 48)/Ableson 8 (9, 23, 10, 4, 42)/NCDE_32nodes_Uniform0.05Virtual_Nelson(22, 10, 50, 39, 48)_Ableson(9, 23, 10, 4, 42)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.0001337558556300983</v>
+        <v>0.0001334558586972819</v>
       </c>
       <c r="E2">
-        <v>0.0001337558556300983</v>
+        <v>0.0001334558586972819</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9713742133137271</v>
+        <v>0.9714458571676261</v>
       </c>
       <c r="E3">
-        <v>0.9713742133137271</v>
+        <v>0.9714458571676261</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2.341060216558764E-05</v>
+        <v>2.342518478432721E-05</v>
       </c>
       <c r="E4">
-        <v>2.341060216558764E-05</v>
+        <v>2.342518478432721E-05</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>4.819903558889845E-17</v>
+        <v>4.792556766377004E-17</v>
       </c>
       <c r="E5">
-        <v>4.819903558889845E-17</v>
+        <v>4.792556766377004E-17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.7082617005869913</v>
+        <v>0.7087541795104007</v>
       </c>
       <c r="E6">
-        <v>0.7082617005869913</v>
+        <v>0.7087541795104007</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.972524417922519</v>
+        <v>0.9976365537575965</v>
       </c>
       <c r="E7">
-        <v>0.02747558207748102</v>
+        <v>0.002363446242403477</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9717550033240773</v>
+        <v>0.8960762728884814</v>
       </c>
       <c r="E8">
-        <v>0.02824499667592273</v>
+        <v>0.1039237271115186</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9719496152453516</v>
+        <v>0.9668134181145299</v>
       </c>
       <c r="E9">
-        <v>0.02805038475464838</v>
+        <v>0.03318658188547008</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9712040651350968</v>
+        <v>0.997682432714646</v>
       </c>
       <c r="E10">
-        <v>0.02879593486490317</v>
+        <v>0.002317567285354039</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9726116228950686</v>
+        <v>0.9793656142634262</v>
       </c>
       <c r="E11">
-        <v>0.02738837710493136</v>
+        <v>0.02063438573657383</v>
       </c>
       <c r="F11">
-        <v>0.4927454590797424</v>
+        <v>0.4958714842796326</v>
       </c>
       <c r="G11">
         <v>0.8</v>
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.0002033474650605166</v>
+        <v>0.0002022080920420974</v>
       </c>
       <c r="E12">
-        <v>0.0002033474650605166</v>
+        <v>0.0002022080920420974</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.9964127872689218</v>
+        <v>0.9964219922605527</v>
       </c>
       <c r="E13">
-        <v>0.9964127872689218</v>
+        <v>0.9964219922605527</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.0004063436922536079</v>
+        <v>0.0004056613643315822</v>
       </c>
       <c r="E14">
-        <v>0.0004063436922536079</v>
+        <v>0.0004056613643315822</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>7.701335740208289E-21</v>
+        <v>7.636477246211202E-21</v>
       </c>
       <c r="E15">
-        <v>7.701335740208289E-21</v>
+        <v>7.636477246211202E-21</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.1322752615141004</v>
+        <v>0.1322650787433982</v>
       </c>
       <c r="E16">
-        <v>0.1322752615141004</v>
+        <v>0.1322650787433982</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9966624355058452</v>
+        <v>0.9989313939047907</v>
       </c>
       <c r="E17">
-        <v>0.003337564494154788</v>
+        <v>0.001068606095209312</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.9961576297319723</v>
+        <v>0.9948670563109221</v>
       </c>
       <c r="E18">
-        <v>0.003842370268027695</v>
+        <v>0.005132943689077907</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.9960642028348911</v>
+        <v>0.9916445916387721</v>
       </c>
       <c r="E19">
-        <v>0.003935797165108945</v>
+        <v>0.008355408361227945</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.9958039851588374</v>
+        <v>0.9983848385020777</v>
       </c>
       <c r="E20">
-        <v>0.00419601484116261</v>
+        <v>0.001615161497922291</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,13 +731,13 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9965127879405792</v>
+        <v>0.9831201494415138</v>
       </c>
       <c r="E21">
-        <v>0.003487212059420819</v>
+        <v>0.01687985055848618</v>
       </c>
       <c r="F21">
-        <v>0.5791705846786499</v>
+        <v>0.5808672308921814</v>
       </c>
       <c r="G21">
         <v>0.9</v>
